--- a/AutomationFramework/results/07102020/final_output.xlsx
+++ b/AutomationFramework/results/07102020/final_output.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1370">
   <si>
     <t xml:space="preserve">VENDOR</t>
   </si>
@@ -2040,30 +2040,26 @@
     <t xml:space="preserve">TestInterfacesEthernet</t>
   </si>
   <si>
-    <t xml:space="preserve">if_ethernet_auto_negotiate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to define if the interface is auto negotiate enable.
+    <t xml:space="preserve">if_ethernet_duplex_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to define the duplex mode in an interface.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">oc-eth:auto-negotiate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/interfaces/interface/oc-eth:ethernet/oc-eth:config/oc-eth:auto-negotiate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_ethernet_auto_negotiate.xml</t>
+    <t xml:space="preserve">oc-eth:duplex-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/interfaces/interface/oc-eth:ethernet/oc-eth:config/oc-eth:duplex-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_ethernet_duplex_mode.xml</t>
   </si>
   <si>
     <t xml:space="preserve">if_ethernet.yml</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-07T18:33:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncclient.operations.rpc.RPCError: 
-            MINOR: MGMT_CORE #4001: Not supported for port type or speed - interfaces interface name "1/1/c11/2" ethernet</t>
+    <t xml:space="preserve">2020-10-19T21:46:35</t>
   </si>
   <si>
     <t xml:space="preserve">tests/interfaces/test_if_ethernet.py</t>
@@ -2072,19 +2068,36 @@
     <t xml:space="preserve">ethernet</t>
   </si>
   <si>
+    <t xml:space="preserve">
+                    &lt;filter&gt;
+                        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+                        &lt;interface&gt;
+                        &lt;name&gt;1/1/1&lt;/name&gt;
+                        &lt;/interface&gt;
+                        &lt;/interfaces&gt;
+                    &lt;/filter&gt;
+                    </t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:12cad340-7b95-4980-af57-3263dbc20501" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:b57418b5-9d1d-4cd5-8855-893ecdd034f4" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
                 &lt;config&gt;
-                    &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
                     &lt;type&gt;ethernetCsmacd&lt;/type&gt;
                     &lt;mtu&gt;1500&lt;/mtu&gt;
-                    &lt;description&gt;TestSamier 2&lt;/description&gt;
+                    &lt;description&gt;test&lt;/description&gt;
                     &lt;enabled&gt;true&lt;/enabled&gt;
                 &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
             &lt;/interface&gt;
         &lt;/interfaces&gt;
     &lt;/data&gt;
@@ -2098,68 +2111,7 @@
     &lt;config&gt;
       &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
         &lt;interface&gt;
-          &lt;name&gt;1/1/c11/2&lt;/name&gt;
-          &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
-            &lt;config&gt;
-              &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
-            &lt;/config&gt;
-          &lt;/ethernet&gt;
-        &lt;/interface&gt;
-      &lt;/interfaces&gt;
-    &lt;/config&gt;
-  &lt;/edit-config&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_ethernet_duplex_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to define the duplex mode in an interface.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oc-eth:duplex-mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/interfaces/interface/oc-eth:ethernet/oc-eth:config/oc-eth:duplex-mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_ethernet_duplex_mode.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-07T18:33:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncclient.operations.rpc.RPCError: 
-            MINOR: MGMT_CORE #4001: Not supported - interfaces interface name "1/1/c11/2" ethernet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:ae4593d0-6747-433d-a3d1-d393b09c2665" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
-    &lt;data&gt;
-        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
-            &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
-                &lt;config&gt;
-                    &lt;name&gt;1/1/c11/2&lt;/name&gt;
-                    &lt;type&gt;ethernetCsmacd&lt;/type&gt;
-                    &lt;mtu&gt;1500&lt;/mtu&gt;
-                    &lt;description&gt;TestSamier 2&lt;/description&gt;
-                    &lt;enabled&gt;true&lt;/enabled&gt;
-                &lt;/config&gt;
-            &lt;/interface&gt;
-        &lt;/interfaces&gt;
-    &lt;/data&gt;
-&lt;/rpc-reply&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;edit-config&gt;
-    &lt;target&gt;
-      &lt;candidate/&gt;
-    &lt;/target&gt;
-    &lt;config&gt;
-      &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
-        &lt;interface&gt;
-          &lt;name&gt;1/1/c11/2&lt;/name&gt;
+          &lt;name&gt;1/1/1&lt;/name&gt;
           &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
             &lt;config&gt;
               &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
@@ -2171,38 +2123,81 @@
   &lt;/edit-config&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">if_ethernet_port_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This test is to define the port speed in an interface.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oc-eth:port-speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/interfaces/interface/oc-eth:ethernet/oc-eth:config/oc-eth:port-speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_ethernet_port_speed.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-07T18:33:25</t>
+    <t xml:space="preserve">- Response of edit-config: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:64f854ab-2c19-40f2-9c62-fe90040bb88c" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt; 
+ - Response of commit: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:4d4a1fad-7301-476c-82d0-e3ad48c9f81a" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:d7d227f4-65f5-42f4-a29a-c5ad97666379" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:5f3f634b-b2c1-4e15-b754-bac9763d9516" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
                 &lt;config&gt;
-                    &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
                     &lt;type&gt;ethernetCsmacd&lt;/type&gt;
                     &lt;mtu&gt;1500&lt;/mtu&gt;
-                    &lt;description&gt;TestSamier 2&lt;/description&gt;
+                    &lt;description&gt;test&lt;/description&gt;
                     &lt;enabled&gt;true&lt;/enabled&gt;
                 &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
+            &lt;/interface&gt;
+        &lt;/interfaces&gt;
+    &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_ethernet_port_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to define the port speed in an interface.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oc-eth:port-speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/interfaces/interface/oc-eth:ethernet/oc-eth:config/oc-eth:port-speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_ethernet_port_speed.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-19T21:46:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:93d20dc6-315e-4c50-9c83-46592205cddd" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;data&gt;
+        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+            &lt;interface&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
+                &lt;config&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
+                    &lt;type&gt;ethernetCsmacd&lt;/type&gt;
+                    &lt;mtu&gt;1500&lt;/mtu&gt;
+                    &lt;description&gt;test&lt;/description&gt;
+                    &lt;enabled&gt;true&lt;/enabled&gt;
+                &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
             &lt;/interface&gt;
         &lt;/interfaces&gt;
     &lt;/data&gt;
@@ -2216,10 +2211,10 @@
     &lt;config&gt;
       &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
         &lt;interface&gt;
-          &lt;name&gt;1/1/c11/2&lt;/name&gt;
+          &lt;name&gt;1/1/1&lt;/name&gt;
           &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
             &lt;config&gt;
-              &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+              &lt;port-speed&gt;SPEED_1GB&lt;/port-speed&gt;
             &lt;/config&gt;
           &lt;/ethernet&gt;
         &lt;/interface&gt;
@@ -2228,6 +2223,42 @@
   &lt;/edit-config&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">- Response of edit-config: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:e7175072-9d61-4576-abca-7b810c070b4f" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt; 
+ - Response of commit: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:4b64ffd3-9aa4-41f0-a967-c06c8f358bad" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:4879bc0c-c8bf-4f6a-a3d8-e12475229557" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;data&gt;
+        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+            &lt;interface&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
+                &lt;config&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
+                    &lt;type&gt;ethernetCsmacd&lt;/type&gt;
+                    &lt;mtu&gt;1500&lt;/mtu&gt;
+                    &lt;description&gt;test&lt;/description&gt;
+                    &lt;enabled&gt;true&lt;/enabled&gt;
+                &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_1GB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
+            &lt;/interface&gt;
+        &lt;/interfaces&gt;
+    &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">if_ethernet_aggregate_id</t>
   </si>
   <si>
@@ -2244,7 +2275,7 @@
     <t xml:space="preserve">if_ethernet_aggregate_id.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-07T18:33:48</t>
+    <t xml:space="preserve">2020-10-19T21:47:04</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;class 'AutomationFramework.page_objects.interfaces.interfaces.Interfaces'&gt; 
@@ -2264,7 +2295,7 @@
                     &lt;filter&gt;
                         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
                         &lt;interface&gt;
-                        &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                        &lt;name&gt;1/1/1&lt;/name&gt;
                         &lt;/interface&gt;
                         &lt;/interfaces&gt;
                     &lt;/filter&gt;
@@ -2272,24 +2303,31 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:a1acb4a3-2c02-48bc-a6de-5991d94230f2" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:746e106d-83da-4bfe-8f4b-9bff3c5d2e3d" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
     &lt;/data&gt;
 &lt;/rpc-reply&gt; 
 -------------------
 &lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:995e6a93-489c-4bee-b991-6057e0dcccac" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:dde397d5-a583-4a97-b71f-7b1cd1f29e58" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
                 &lt;config&gt;
-                    &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
                     &lt;type&gt;ethernetCsmacd&lt;/type&gt;
                     &lt;mtu&gt;1500&lt;/mtu&gt;
-                    &lt;description&gt;TestSamier 2&lt;/description&gt;
+                    &lt;description&gt;test&lt;/description&gt;
                     &lt;enabled&gt;true&lt;/enabled&gt;
                 &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
             &lt;/interface&gt;
         &lt;/interfaces&gt;
     &lt;/data&gt;
@@ -2321,7 +2359,7 @@
     &lt;config&gt;
       &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
         &lt;interface&gt;
-          &lt;name&gt;1/1/c11/2&lt;/name&gt;
+          &lt;name&gt;1/1/1&lt;/name&gt;
           &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
             &lt;config&gt;
               &lt;aggregate-id xmlns="http://openconfig.net/yang/interfaces/aggregate"&gt;lag-1&lt;/aggregate-id&gt;
@@ -2334,26 +2372,26 @@
   </si>
   <si>
     <t xml:space="preserve">- Response of edit-config: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:28a6b6dd-fa05-416a-aad3-1a2a8d57b59b" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:8331c687-afda-4095-9577-1643acc83fa0" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;ok/&gt;
 &lt;/rpc-reply&gt; 
  - Response of commit: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:6d35f1c3-2d2d-442e-98c7-d51693417ac1" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:f657f7cb-0ab8-49e4-a995-76e30e2a2bec" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;ok/&gt;
 &lt;/rpc-reply&gt; 
 -------------------
 - Response of edit-config: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:a01f61d7-afcf-464d-ac16-a6d25bba0448" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:130c8d38-d7bb-4460-8a01-3cf030f783e7" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;ok/&gt;
 &lt;/rpc-reply&gt; 
  - Response of commit: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:9651d3c7-1db9-439b-964c-1cc116cde6ee" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:e1d22199-55bf-4b43-8311-80f09b72deb3" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;ok/&gt;
 &lt;/rpc-reply&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:30fd390c-633a-43bb-89c3-a1360a4a304c" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:c2d6484d-7f1b-4e11-a381-56e67adbf4bd" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
@@ -2369,20 +2407,23 @@
 &lt;/rpc-reply&gt; 
 -------------------
 &lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:c06c747d-0e6a-482c-8fe8-b7ad152aaa8c" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:2d61ec01-e33f-4989-a66f-ca004e7426c6" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
                 &lt;config&gt;
-                    &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
                     &lt;type&gt;ethernetCsmacd&lt;/type&gt;
                     &lt;mtu&gt;1500&lt;/mtu&gt;
-                    &lt;description&gt;TestSamier 2&lt;/description&gt;
+                    &lt;description&gt;test&lt;/description&gt;
                     &lt;enabled&gt;true&lt;/enabled&gt;
                 &lt;/config&gt;
                 &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
                     &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;duplex-mode&gt;FULL&lt;/duplex-mode&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
                         &lt;aggregate-id&gt;lag-1&lt;/aggregate-id&gt;
                     &lt;/config&gt;
                 &lt;/ethernet&gt;
@@ -2392,6 +2433,103 @@
 &lt;/rpc-reply&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">if_ethernet_auto_negotiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is to define if the interface is auto negotiate enable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oc-eth:auto-negotiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/interfaces/interface/oc-eth:ethernet/oc-eth:config/oc-eth:auto-negotiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_ethernet_auto_negotiate.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-19T21:46:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:02acc40c-f5ec-4807-a70b-93e7288e84a9" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;data&gt;
+        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+            &lt;interface&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
+                &lt;config&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
+                    &lt;type&gt;ethernetCsmacd&lt;/type&gt;
+                    &lt;mtu&gt;1500&lt;/mtu&gt;
+                    &lt;description&gt;test&lt;/description&gt;
+                    &lt;enabled&gt;true&lt;/enabled&gt;
+                &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
+            &lt;/interface&gt;
+        &lt;/interfaces&gt;
+    &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;edit-config&gt;
+    &lt;target&gt;
+      &lt;candidate/&gt;
+    &lt;/target&gt;
+    &lt;config&gt;
+      &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+        &lt;interface&gt;
+          &lt;name&gt;1/1/1&lt;/name&gt;
+          &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+            &lt;config&gt;
+              &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+            &lt;/config&gt;
+          &lt;/ethernet&gt;
+        &lt;/interface&gt;
+      &lt;/interfaces&gt;
+    &lt;/config&gt;
+  &lt;/edit-config&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Response of edit-config: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:360eb500-4805-4b58-b796-24ae9ec4f348" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt; 
+ - Response of commit: &lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:284458d7-521c-4d95-a832-500da58b72f7" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;ok/&gt;
+&lt;/rpc-reply&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:52237c29-63fa-4f12-b2bf-6759fc20fb24" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+    &lt;data&gt;
+        &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+            &lt;interface&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
+                &lt;config&gt;
+                    &lt;name&gt;1/1/1&lt;/name&gt;
+                    &lt;type&gt;ethernetCsmacd&lt;/type&gt;
+                    &lt;mtu&gt;1500&lt;/mtu&gt;
+                    &lt;description&gt;test&lt;/description&gt;
+                    &lt;enabled&gt;true&lt;/enabled&gt;
+                &lt;/config&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;config&gt;
+                        &lt;auto-negotiate&gt;false&lt;/auto-negotiate&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/config&gt;
+                &lt;/ethernet&gt;
+            &lt;/interface&gt;
+        &lt;/interfaces&gt;
+    &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">if_ethernet_port_speed_state</t>
   </si>
   <si>
@@ -2405,20 +2543,14 @@
     <t xml:space="preserve">if_ethernet_port_speed_state.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-07T18:33:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssertionError: This test is to get the port-speed of this interface.
-assert False
- +  where False = &lt;bound method BasePageObject.validate_get_test_case of &lt;AutomationFramework.page_objects.interfaces.interfaces.Interfaces object at 0x7fe1e283bad0&gt;&gt;()
- +    where &lt;bound method BasePageObject.validate_get_test_case of &lt;AutomationFramework.page_objects.interfaces.interfaces.Interfaces object at 0x7fe1e283bad0&gt;&gt; = &lt;AutomationFramework.page_objects.interfaces.interfaces.Interfaces object at 0x7fe1e283bad0&gt;.validate_get_test_case</t>
+    <t xml:space="preserve">2020-10-19T21:47:13</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;get&gt;
   &lt;filter&gt;
     &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
       &lt;interface&gt;
-        &lt;name&gt;1/1/c11/2&lt;/name&gt;
+        &lt;name&gt;1/1/1&lt;/name&gt;
         &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
           &lt;state&gt;
             &lt;port-speed&gt;&lt;/port-speed&gt;
@@ -2431,11 +2563,16 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:5067d925-4ae3-433b-b270-762436988476" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+&lt;rpc-reply message-id="urn:uuid:6f8c9066-3c58-43a2-bd77-d7c99ceaed8e" xmlns:nc="urn:ietf:params:xml:ns:netconf:base:1.0" xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
     &lt;data&gt;
         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
             &lt;interface&gt;
-                &lt;name&gt;1/1/c11/2&lt;/name&gt;
+                &lt;name&gt;1/1/1&lt;/name&gt;
+                &lt;ethernet xmlns="http://openconfig.net/yang/interfaces/ethernet"&gt;
+                    &lt;state&gt;
+                        &lt;port-speed&gt;SPEED_100MB&lt;/port-speed&gt;
+                    &lt;/state&gt;
+                &lt;/ethernet&gt;
             &lt;/interface&gt;
         &lt;/interfaces&gt;
     &lt;/data&gt;
@@ -3395,12 +3532,6 @@
   </si>
   <si>
     <t xml:space="preserve">2020-10-07T18:49:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssertionError: This test is to get the state IP of a subinterface.
-assert False
- +  where False = &lt;bound method BasePageObject.validate_rpc of &lt;AutomationFramework.page_objects.interfaces.interfaces.Interfaces object at 0x7f38c83bde50&gt;&gt;()
- +    where &lt;bound method BasePageObject.validate_rpc of &lt;AutomationFramework.page_objects.interfaces.interfaces.Interfaces object at 0x7f38c83bde50&gt;&gt; = &lt;AutomationFramework.page_objects.interfaces.interfaces.Interfaces object at 0x7f38c83bde50&gt;.validate_rpc</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -10546,12 +10677,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -10595,7 +10732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10612,6 +10749,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -10621,6 +10774,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -10696,8 +10909,8 @@
   </sheetPr>
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13717,7 +13930,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="4" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -13787,8 +14000,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -13813,19 +14026,18 @@
         <v>418</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>1.2012140750885</v>
+        <v>1.45000750899999</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>419</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0" t="s">
         <v>420</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>421</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>45</v>
@@ -13834,7 +14046,7 @@
         <v>359</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R47" s="0" t="s">
         <v>48</v>
@@ -13846,7 +14058,7 @@
         <v>360</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>423</v>
@@ -13854,49 +14066,55 @@
       <c r="W47" s="3" t="s">
         <v>424</v>
       </c>
+      <c r="X47" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z47" s="0"/>
       <c r="AA47" s="0" t="s">
-        <v>51</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>412</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>418</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>1.07311630249023</v>
+        <v>1.38816599399979</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>431</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
       <c r="N48" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>45</v>
@@ -13905,7 +14123,7 @@
         <v>359</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R48" s="0" t="s">
         <v>48</v>
@@ -13917,57 +14135,63 @@
         <v>360</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>433</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z48" s="0"/>
       <c r="AA48" s="0" t="s">
-        <v>51</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>412</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>418</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>1.14635062217712</v>
+        <v>2.74171281399958</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>431</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
       <c r="N49" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>45</v>
@@ -13976,66 +14200,77 @@
         <v>359</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R49" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="S49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="0" t="s">
-        <v>360</v>
+      <c r="S49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="AA49" s="0" t="s">
-        <v>51</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>412</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>418</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>3.57253551483154</v>
+        <v>1.40534800299974</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>357</v>
       </c>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
       <c r="N50" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>45</v>
@@ -14044,78 +14279,75 @@
         <v>359</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R50" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="S50" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>448</v>
+      <c r="S50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>360</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z50" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="Z50" s="0"/>
       <c r="AA50" s="0" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>412</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>418</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.838974237442017</v>
+        <v>0.38276096699974</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>459</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
       <c r="N51" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>45</v>
@@ -14124,7 +14356,7 @@
         <v>359</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R51" s="0" t="s">
         <v>63</v>
@@ -14135,52 +14367,56 @@
       <c r="T51" s="0" t="s">
         <v>360</v>
       </c>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
       <c r="W51" s="3" t="s">
-        <v>460</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
       <c r="Z51" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AA51" s="0" t="s">
-        <v>51</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="4" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>1.58473110198975</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>45</v>
@@ -14189,7 +14425,7 @@
         <v>359</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="R52" s="0" t="s">
         <v>48</v>
@@ -14201,19 +14437,19 @@
         <v>360</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AA52" s="0" t="s">
         <v>366</v>
@@ -14224,37 +14460,37 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>1.43468356132507</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>45</v>
@@ -14263,7 +14499,7 @@
         <v>359</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="R53" s="0" t="s">
         <v>48</v>
@@ -14275,19 +14511,19 @@
         <v>360</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AA53" s="0" t="s">
         <v>366</v>
@@ -14298,31 +14534,31 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>0.735720872879028</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>42</v>
@@ -14331,7 +14567,7 @@
         <v>60</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>45</v>
@@ -14340,7 +14576,7 @@
         <v>359</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="R54" s="0" t="s">
         <v>48</v>
@@ -14352,13 +14588,13 @@
         <v>360</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AA54" s="0" t="s">
         <v>51</v>
@@ -14369,31 +14605,31 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>0.754328727722168</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>42</v>
@@ -14402,7 +14638,7 @@
         <v>60</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>45</v>
@@ -14411,7 +14647,7 @@
         <v>359</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="R55" s="0" t="s">
         <v>48</v>
@@ -14423,13 +14659,13 @@
         <v>360</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AA55" s="0" t="s">
         <v>51</v>
@@ -14440,31 +14676,31 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>0.742431402206421</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>42</v>
@@ -14473,7 +14709,7 @@
         <v>60</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>45</v>
@@ -14482,7 +14718,7 @@
         <v>359</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="R56" s="0" t="s">
         <v>48</v>
@@ -14494,13 +14730,13 @@
         <v>360</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AA56" s="0" t="s">
         <v>51</v>
@@ -14511,31 +14747,31 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>0.743726968765259</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>42</v>
@@ -14544,7 +14780,7 @@
         <v>60</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>45</v>
@@ -14553,7 +14789,7 @@
         <v>359</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="R57" s="0" t="s">
         <v>48</v>
@@ -14565,13 +14801,13 @@
         <v>360</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AA57" s="0" t="s">
         <v>51</v>
@@ -14582,31 +14818,31 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>2.00842308998108</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>42</v>
@@ -14615,7 +14851,7 @@
         <v>60</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>45</v>
@@ -14624,7 +14860,7 @@
         <v>359</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="R58" s="0" t="s">
         <v>48</v>
@@ -14636,13 +14872,13 @@
         <v>360</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AA58" s="0" t="s">
         <v>51</v>
@@ -14653,37 +14889,37 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>0.365453958511352</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>45</v>
@@ -14692,7 +14928,7 @@
         <v>359</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="R59" s="0" t="s">
         <v>63</v>
@@ -14704,10 +14940,10 @@
         <v>360</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AA59" s="0" t="s">
         <v>366</v>
@@ -14718,37 +14954,37 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>0.376416921615601</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>45</v>
@@ -14757,7 +14993,7 @@
         <v>359</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="R60" s="0" t="s">
         <v>63</v>
@@ -14769,10 +15005,10 @@
         <v>360</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AA60" s="0" t="s">
         <v>366</v>
@@ -14783,37 +15019,37 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>0.370603561401367</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>45</v>
@@ -14822,7 +15058,7 @@
         <v>359</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="R61" s="0" t="s">
         <v>63</v>
@@ -14834,10 +15070,10 @@
         <v>360</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AA61" s="0" t="s">
         <v>366</v>
@@ -14848,37 +15084,37 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>307</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>0.379150390625</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K62" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>45</v>
@@ -14887,7 +15123,7 @@
         <v>359</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>63</v>
@@ -14899,10 +15135,10 @@
         <v>360</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AA62" s="0" t="s">
         <v>366</v>
@@ -14913,37 +15149,37 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>328</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>0.370021104812622</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K63" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O63" s="0" t="s">
         <v>45</v>
@@ -14952,7 +15188,7 @@
         <v>359</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="R63" s="0" t="s">
         <v>63</v>
@@ -14964,10 +15200,10 @@
         <v>360</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AA63" s="0" t="s">
         <v>366</v>
@@ -14978,37 +15214,37 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>269</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1.49997711181641</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K64" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O64" s="0" t="s">
         <v>45</v>
@@ -15017,7 +15253,7 @@
         <v>359</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R64" s="0" t="s">
         <v>48</v>
@@ -15032,16 +15268,16 @@
         <v>361</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AA64" s="0" t="s">
         <v>366</v>
@@ -15052,37 +15288,37 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1.62646150588989</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O65" s="0" t="s">
         <v>45</v>
@@ -15091,7 +15327,7 @@
         <v>359</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R65" s="0" t="s">
         <v>48</v>
@@ -15106,99 +15342,97 @@
         <v>361</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AA65" s="0" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="B66" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="I66" s="0" t="n">
+      <c r="D66" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="I66" s="6" t="n">
         <v>2.08450126647949</v>
       </c>
-      <c r="J66" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="O66" s="0" t="s">
+      <c r="J66" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="N66" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P66" s="0" t="s">
+      <c r="P66" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="Q66" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="R66" s="0" t="s">
+      <c r="Q66" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="R66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="S66" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="X66" s="3" t="s">
+      <c r="T66" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="U66" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="Y66" s="3" t="s">
+      <c r="V66" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="Z66" s="3" t="s">
+      <c r="W66" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="AA66" s="0" t="s">
-        <v>51</v>
+      <c r="X66" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z66" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA66" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15206,40 +15440,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>1.91352200508118</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K67" s="0" t="s">
         <v>42</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>45</v>
@@ -15248,7 +15482,7 @@
         <v>359</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R67" s="0" t="s">
         <v>48</v>
@@ -15257,25 +15491,25 @@
         <v>181</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AA67" s="0" t="s">
         <v>51</v>
@@ -15286,37 +15520,37 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>1.47456073760986</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K68" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O68" s="0" t="s">
         <v>45</v>
@@ -15325,7 +15559,7 @@
         <v>359</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R68" s="0" t="s">
         <v>48</v>
@@ -15340,16 +15574,16 @@
         <v>361</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AA68" s="0" t="s">
         <v>366</v>
@@ -15360,31 +15594,31 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>0.725318670272827</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K69" s="0" t="s">
         <v>42</v>
@@ -15393,7 +15627,7 @@
         <v>43</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O69" s="0" t="s">
         <v>45</v>
@@ -15402,7 +15636,7 @@
         <v>359</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R69" s="0" t="s">
         <v>48</v>
@@ -15417,10 +15651,10 @@
         <v>361</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AA69" s="0" t="s">
         <v>51</v>
@@ -15431,37 +15665,37 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>1.44926619529724</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O70" s="0" t="s">
         <v>45</v>
@@ -15470,7 +15704,7 @@
         <v>359</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>48</v>
@@ -15485,16 +15719,16 @@
         <v>361</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AA70" s="0" t="s">
         <v>366</v>
@@ -15505,37 +15739,37 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>1.47353339195252</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="K71" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>45</v>
@@ -15544,7 +15778,7 @@
         <v>359</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R71" s="0" t="s">
         <v>48</v>
@@ -15559,16 +15793,16 @@
         <v>361</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AA71" s="0" t="s">
         <v>366</v>
@@ -15579,31 +15813,31 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>0.757937908172607</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>42</v>
@@ -15612,7 +15846,7 @@
         <v>43</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O72" s="0" t="s">
         <v>45</v>
@@ -15621,7 +15855,7 @@
         <v>359</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R72" s="0" t="s">
         <v>48</v>
@@ -15636,10 +15870,10 @@
         <v>361</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AA72" s="0" t="s">
         <v>51</v>
@@ -15650,31 +15884,31 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>0.797395706176758</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>42</v>
@@ -15683,7 +15917,7 @@
         <v>43</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O73" s="0" t="s">
         <v>45</v>
@@ -15692,7 +15926,7 @@
         <v>359</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="R73" s="0" t="s">
         <v>48</v>
@@ -15707,10 +15941,10 @@
         <v>361</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AA73" s="0" t="s">
         <v>51</v>
@@ -15721,43 +15955,43 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>269</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>1.5455424785614</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>47</v>
@@ -15769,22 +16003,22 @@
         <v>0</v>
       </c>
       <c r="T74" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AA74" s="0" t="s">
         <v>366</v>
@@ -15795,31 +16029,31 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>0.79105281829834</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>42</v>
@@ -15828,13 +16062,13 @@
         <v>43</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q75" s="0" t="s">
         <v>47</v>
@@ -15846,16 +16080,16 @@
         <v>0</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AA75" s="0" t="s">
         <v>51</v>
@@ -15866,31 +16100,31 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>0.809278726577759</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>42</v>
@@ -15899,13 +16133,13 @@
         <v>43</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O76" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>47</v>
@@ -15917,16 +16151,16 @@
         <v>0</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="AA76" s="0" t="s">
         <v>51</v>
@@ -15937,31 +16171,31 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>388</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>0.733396291732788</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>42</v>
@@ -15970,13 +16204,13 @@
         <v>43</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O77" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q77" s="0" t="s">
         <v>47</v>
@@ -15988,16 +16222,16 @@
         <v>0</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="AA77" s="0" t="s">
         <v>51</v>
@@ -16008,43 +16242,43 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>1.74539184570313</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O78" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>47</v>
@@ -16056,22 +16290,22 @@
         <v>0</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="Y78" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="AA78" s="0" t="s">
         <v>366</v>
@@ -16082,31 +16316,31 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>0.761461019515991</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>42</v>
@@ -16115,13 +16349,13 @@
         <v>43</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O79" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>47</v>
@@ -16133,16 +16367,16 @@
         <v>0</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AA79" s="0" t="s">
         <v>51</v>
@@ -16153,43 +16387,43 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>1.47542095184326</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O80" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>47</v>
@@ -16201,22 +16435,22 @@
         <v>0</v>
       </c>
       <c r="T80" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Y80" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AA80" s="0" t="s">
         <v>366</v>
@@ -16227,43 +16461,43 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>328</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>2.10241055488586</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="K81" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O81" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>47</v>
@@ -16275,22 +16509,22 @@
         <v>0</v>
       </c>
       <c r="T81" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="Y81" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="AA81" s="0" t="s">
         <v>366</v>
@@ -16301,31 +16535,31 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>0.738962173461914</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>42</v>
@@ -16334,16 +16568,16 @@
         <v>43</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O82" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R82" s="0" t="s">
         <v>48</v>
@@ -16352,16 +16586,16 @@
         <v>0</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="AA82" s="0" t="s">
         <v>51</v>
@@ -16372,31 +16606,31 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>0.73162055015564</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>42</v>
@@ -16405,16 +16639,16 @@
         <v>43</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O83" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R83" s="0" t="s">
         <v>48</v>
@@ -16423,16 +16657,16 @@
         <v>0</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="AA83" s="0" t="s">
         <v>51</v>
@@ -16443,31 +16677,31 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>0.72346830368042</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>42</v>
@@ -16476,16 +16710,16 @@
         <v>43</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O84" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>48</v>
@@ -16494,16 +16728,16 @@
         <v>0</v>
       </c>
       <c r="T84" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="AA84" s="0" t="s">
         <v>51</v>
@@ -16514,31 +16748,31 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>328</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>0.708434104919434</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>42</v>
@@ -16547,16 +16781,16 @@
         <v>43</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O85" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R85" s="0" t="s">
         <v>48</v>
@@ -16565,16 +16799,16 @@
         <v>0</v>
       </c>
       <c r="T85" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="AA85" s="0" t="s">
         <v>51</v>
@@ -16585,31 +16819,31 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>0.804646730422974</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>42</v>
@@ -16618,16 +16852,16 @@
         <v>43</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O86" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R86" s="0" t="s">
         <v>48</v>
@@ -16636,16 +16870,16 @@
         <v>0</v>
       </c>
       <c r="T86" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AA86" s="0" t="s">
         <v>51</v>
@@ -16656,31 +16890,31 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>0.754191160202026</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>42</v>
@@ -16689,16 +16923,16 @@
         <v>43</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O87" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>48</v>
@@ -16707,16 +16941,16 @@
         <v>0</v>
       </c>
       <c r="T87" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="AA87" s="0" t="s">
         <v>51</v>
@@ -16727,31 +16961,31 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>0.73386287689209</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>42</v>
@@ -16760,16 +16994,16 @@
         <v>43</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="O88" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>48</v>
@@ -16778,16 +17012,16 @@
         <v>0</v>
       </c>
       <c r="T88" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="AA88" s="0" t="s">
         <v>51</v>
@@ -16798,31 +17032,31 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>0.712828159332275</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>42</v>
@@ -16831,16 +17065,16 @@
         <v>43</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="R89" s="0" t="s">
         <v>48</v>
@@ -16849,16 +17083,16 @@
         <v>0</v>
       </c>
       <c r="T89" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="AA89" s="0" t="s">
         <v>51</v>
@@ -16869,31 +17103,31 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>0.806219577789306</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>42</v>
@@ -16902,16 +17136,16 @@
         <v>43</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="O90" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>48</v>
@@ -16920,16 +17154,16 @@
         <v>0</v>
       </c>
       <c r="T90" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="AA90" s="0" t="s">
         <v>51</v>
@@ -16940,31 +17174,31 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>0.76205849647522</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>42</v>
@@ -16973,16 +17207,16 @@
         <v>43</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="O91" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="R91" s="0" t="s">
         <v>48</v>
@@ -16991,16 +17225,16 @@
         <v>0</v>
       </c>
       <c r="T91" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="AA91" s="0" t="s">
         <v>51</v>
@@ -17011,31 +17245,31 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>0.711246013641357</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="K92" s="0" t="s">
         <v>42</v>
@@ -17044,16 +17278,16 @@
         <v>43</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="O92" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="R92" s="0" t="s">
         <v>48</v>
@@ -17062,16 +17296,16 @@
         <v>0</v>
       </c>
       <c r="T92" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="AA92" s="0" t="s">
         <v>51</v>
@@ -17082,31 +17316,31 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>0.732015371322632</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>42</v>
@@ -17115,16 +17349,16 @@
         <v>43</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="O93" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="R93" s="0" t="s">
         <v>48</v>
@@ -17133,16 +17367,16 @@
         <v>0</v>
       </c>
       <c r="T93" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="AA93" s="0" t="s">
         <v>51</v>
@@ -17153,31 +17387,31 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>2.30446648597717</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K94" s="0" t="s">
         <v>42</v>
@@ -17186,16 +17420,16 @@
         <v>43</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="O94" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="R94" s="0" t="s">
         <v>48</v>
@@ -17204,22 +17438,22 @@
         <v>181</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="Y94" s="3" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>184</v>
@@ -17233,31 +17467,31 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>2.07906436920166</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="K95" s="0" t="s">
         <v>42</v>
@@ -17266,16 +17500,16 @@
         <v>43</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="O95" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q95" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="R95" s="0" t="s">
         <v>48</v>
@@ -17284,22 +17518,22 @@
         <v>181</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="X95" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="Z95" s="3" t="s">
         <v>184</v>
@@ -17313,49 +17547,49 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>286</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>1.10992884635925</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="K96" s="0" t="s">
         <v>42</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="O96" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q96" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="R96" s="0" t="s">
         <v>48</v>
@@ -17364,16 +17598,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="AA96" s="0" t="s">
         <v>51</v>
@@ -17384,49 +17618,49 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C97" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>886</v>
-      </c>
       <c r="F97" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>1.15669965744019</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>42</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="O97" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="R97" s="0" t="s">
         <v>48</v>
@@ -17435,16 +17669,16 @@
         <v>0</v>
       </c>
       <c r="T97" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="AA97" s="0" t="s">
         <v>51</v>
@@ -17455,46 +17689,46 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>2.90102672576904</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="K98" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="O98" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="R98" s="0" t="s">
         <v>48</v>
@@ -17503,22 +17737,22 @@
         <v>181</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="Z98" s="3" t="s">
         <v>184</v>
@@ -17532,31 +17766,31 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>0.7525315284729</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="K99" s="0" t="s">
         <v>42</v>
@@ -17565,16 +17799,16 @@
         <v>43</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O99" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="R99" s="0" t="s">
         <v>48</v>
@@ -17583,16 +17817,16 @@
         <v>0</v>
       </c>
       <c r="T99" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AA99" s="0" t="s">
         <v>51</v>
@@ -17603,31 +17837,31 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>0.73349928855896</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>42</v>
@@ -17636,16 +17870,16 @@
         <v>43</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O100" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="R100" s="0" t="s">
         <v>48</v>
@@ -17654,16 +17888,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="AA100" s="0" t="s">
         <v>51</v>
@@ -17674,31 +17908,31 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>0.722505331039429</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="K101" s="0" t="s">
         <v>42</v>
@@ -17707,16 +17941,16 @@
         <v>43</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O101" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="R101" s="0" t="s">
         <v>48</v>
@@ -17725,16 +17959,16 @@
         <v>0</v>
       </c>
       <c r="T101" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AA101" s="0" t="s">
         <v>51</v>
@@ -17745,31 +17979,31 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="I102" s="0" t="n">
         <v>3.44446706771851</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>42</v>
@@ -17778,16 +18012,16 @@
         <v>43</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="O102" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="R102" s="0" t="s">
         <v>48</v>
@@ -17796,16 +18030,16 @@
         <v>0</v>
       </c>
       <c r="T102" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="AA102" s="0" t="s">
         <v>51</v>
@@ -17816,46 +18050,46 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I103" s="0" t="n">
         <v>1.52946305274963</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="K103" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O103" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R103" s="0" t="s">
         <v>48</v>
@@ -17864,22 +18098,22 @@
         <v>0</v>
       </c>
       <c r="T103" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="Y103" s="3" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="AA103" s="0" t="s">
         <v>366</v>
@@ -17890,46 +18124,46 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I104" s="0" t="n">
         <v>1.54440975189209</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O104" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R104" s="0" t="s">
         <v>48</v>
@@ -17938,22 +18172,22 @@
         <v>0</v>
       </c>
       <c r="T104" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="Y104" s="3" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="AA104" s="0" t="s">
         <v>366</v>
@@ -17964,46 +18198,46 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I105" s="0" t="n">
         <v>3.31624341011047</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O105" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R105" s="0" t="s">
         <v>48</v>
@@ -18012,22 +18246,22 @@
         <v>181</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="Y105" s="3" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="Z105" s="3" t="s">
         <v>184</v>
@@ -18041,46 +18275,46 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I106" s="0" t="n">
         <v>3.26521468162537</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="K106" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O106" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R106" s="0" t="s">
         <v>48</v>
@@ -18089,22 +18323,22 @@
         <v>181</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="Y106" s="3" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="Z106" s="3" t="s">
         <v>184</v>
@@ -18118,46 +18352,46 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>269</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I107" s="0" t="n">
         <v>1.85185623168945</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="K107" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O107" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R107" s="0" t="s">
         <v>48</v>
@@ -18166,22 +18400,22 @@
         <v>0</v>
       </c>
       <c r="T107" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="Y107" s="3" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="AA107" s="0" t="s">
         <v>366</v>
@@ -18192,46 +18426,46 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>1.7225513458252</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="K108" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O108" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R108" s="0" t="s">
         <v>48</v>
@@ -18240,22 +18474,22 @@
         <v>0</v>
       </c>
       <c r="T108" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="Y108" s="3" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="AA108" s="0" t="s">
         <v>366</v>
@@ -18266,46 +18500,46 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>1.76099348068237</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="K109" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O109" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>48</v>
@@ -18314,22 +18548,22 @@
         <v>0</v>
       </c>
       <c r="T109" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="Y109" s="3" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="AA109" s="0" t="s">
         <v>366</v>
@@ -18340,46 +18574,46 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>1.67107009887695</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="K110" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O110" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R110" s="0" t="s">
         <v>48</v>
@@ -18388,22 +18622,22 @@
         <v>0</v>
       </c>
       <c r="T110" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="Y110" s="3" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="AA110" s="0" t="s">
         <v>366</v>
@@ -18414,46 +18648,46 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>1.85480165481567</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="K111" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O111" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R111" s="0" t="s">
         <v>48</v>
@@ -18462,22 +18696,22 @@
         <v>0</v>
       </c>
       <c r="T111" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="Y111" s="3" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="AA111" s="0" t="s">
         <v>366</v>
@@ -18488,46 +18722,46 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>1.82901883125305</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="K112" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O112" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R112" s="0" t="s">
         <v>48</v>
@@ -18536,22 +18770,22 @@
         <v>0</v>
       </c>
       <c r="T112" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="Y112" s="3" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="AA112" s="0" t="s">
         <v>366</v>
@@ -18562,31 +18796,31 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>0.745356321334839</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K113" s="0" t="s">
         <v>42</v>
@@ -18595,16 +18829,16 @@
         <v>43</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O113" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q113" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R113" s="0" t="s">
         <v>48</v>
@@ -18613,16 +18847,16 @@
         <v>0</v>
       </c>
       <c r="T113" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="AA113" s="0" t="s">
         <v>51</v>
@@ -18633,46 +18867,46 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>1.78475618362427</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="K114" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O114" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="R114" s="0" t="s">
         <v>48</v>
@@ -18681,22 +18915,22 @@
         <v>0</v>
       </c>
       <c r="T114" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="Y114" s="3" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="AA114" s="0" t="s">
         <v>366</v>
@@ -18707,46 +18941,46 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>1.94632267951965</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="K115" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="O115" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P115" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="R115" s="0" t="s">
         <v>48</v>
@@ -18755,22 +18989,22 @@
         <v>0</v>
       </c>
       <c r="T115" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="Y115" s="3" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="AA115" s="0" t="s">
         <v>366</v>
@@ -18781,46 +19015,46 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>4.32007503509522</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="K116" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="O116" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q116" s="0" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="R116" s="0" t="s">
         <v>48</v>
@@ -18829,22 +19063,22 @@
         <v>0</v>
       </c>
       <c r="T116" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="Y116" s="3" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="AA116" s="0" t="s">
         <v>366</v>
@@ -18855,31 +19089,31 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>0.774495601654053</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="K117" s="0" t="s">
         <v>42</v>
@@ -18888,16 +19122,16 @@
         <v>43</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O117" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q117" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R117" s="0" t="s">
         <v>48</v>
@@ -18906,16 +19140,16 @@
         <v>0</v>
       </c>
       <c r="T117" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="AA117" s="0" t="s">
         <v>51</v>
@@ -18926,31 +19160,31 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>0.755948066711426</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="K118" s="0" t="s">
         <v>42</v>
@@ -18959,16 +19193,16 @@
         <v>43</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q118" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R118" s="0" t="s">
         <v>48</v>
@@ -18977,16 +19211,16 @@
         <v>0</v>
       </c>
       <c r="T118" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="AA118" s="0" t="s">
         <v>51</v>
@@ -18997,31 +19231,31 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>286</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>0.733581781387329</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="K119" s="0" t="s">
         <v>42</v>
@@ -19030,16 +19264,16 @@
         <v>43</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O119" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R119" s="0" t="s">
         <v>48</v>
@@ -19048,16 +19282,16 @@
         <v>0</v>
       </c>
       <c r="T119" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V119" s="3" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="AA119" s="0" t="s">
         <v>51</v>
@@ -19068,31 +19302,31 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>0.829037666320801</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="K120" s="0" t="s">
         <v>42</v>
@@ -19101,16 +19335,16 @@
         <v>43</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P120" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R120" s="0" t="s">
         <v>48</v>
@@ -19119,16 +19353,16 @@
         <v>0</v>
       </c>
       <c r="T120" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="AA120" s="0" t="s">
         <v>51</v>
@@ -19139,31 +19373,31 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>0.764258146286011</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>42</v>
@@ -19172,16 +19406,16 @@
         <v>43</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O121" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R121" s="0" t="s">
         <v>48</v>
@@ -19190,16 +19424,16 @@
         <v>0</v>
       </c>
       <c r="T121" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="AA121" s="0" t="s">
         <v>51</v>
@@ -19210,31 +19444,31 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>2.21220064163208</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="K122" s="0" t="s">
         <v>42</v>
@@ -19243,16 +19477,16 @@
         <v>43</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O122" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P122" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R122" s="0" t="s">
         <v>48</v>
@@ -19261,22 +19495,22 @@
         <v>181</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="Y122" s="3" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="Z122" s="3" t="s">
         <v>184</v>
@@ -19290,31 +19524,31 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>0.764100313186646</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="K123" s="0" t="s">
         <v>42</v>
@@ -19323,16 +19557,16 @@
         <v>43</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O123" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q123" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="R123" s="0" t="s">
         <v>48</v>
@@ -19341,16 +19575,16 @@
         <v>0</v>
       </c>
       <c r="T123" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="AA123" s="0" t="s">
         <v>51</v>
@@ -19361,46 +19595,46 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>1.51583647727966</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K124" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="R124" s="0" t="s">
         <v>48</v>
@@ -19409,22 +19643,22 @@
         <v>0</v>
       </c>
       <c r="T124" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="X124" s="3" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="Y124" s="3" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="AA124" s="0" t="s">
         <v>366</v>
@@ -19435,46 +19669,46 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>1.54058909416199</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="K125" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="O125" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P125" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="R125" s="0" t="s">
         <v>48</v>
@@ -19483,22 +19717,22 @@
         <v>0</v>
       </c>
       <c r="T125" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="Y125" s="3" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="AA125" s="0" t="s">
         <v>366</v>
@@ -19509,46 +19743,46 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>3.61343717575073</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="K126" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="O126" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P126" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="R126" s="0" t="s">
         <v>48</v>
@@ -19557,22 +19791,22 @@
         <v>0</v>
       </c>
       <c r="T126" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="Y126" s="3" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="AA126" s="0" t="s">
         <v>366</v>
@@ -19583,31 +19817,31 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>2.02901005744934</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="K127" s="0" t="s">
         <v>42</v>
@@ -19616,16 +19850,16 @@
         <v>43</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="O127" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q127" s="0" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="R127" s="0" t="s">
         <v>48</v>
@@ -19634,16 +19868,16 @@
         <v>0</v>
       </c>
       <c r="T127" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="AA127" s="0" t="s">
         <v>51</v>
@@ -19654,31 +19888,31 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>0.833147525787354</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="K128" s="0" t="s">
         <v>42</v>
@@ -19687,16 +19921,16 @@
         <v>43</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="O128" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P128" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="R128" s="0" t="s">
         <v>48</v>
@@ -19705,16 +19939,16 @@
         <v>0</v>
       </c>
       <c r="T128" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="AA128" s="0" t="s">
         <v>51</v>
@@ -19725,31 +19959,31 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2.20669674873352</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="K129" s="0" t="s">
         <v>42</v>
@@ -19758,16 +19992,16 @@
         <v>43</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="O129" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P129" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q129" s="0" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="R129" s="0" t="s">
         <v>48</v>
@@ -19776,22 +20010,22 @@
         <v>181</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="V129" s="3" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="Y129" s="3" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="Z129" s="3" t="s">
         <v>184</v>
@@ -19805,31 +20039,31 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>0.790724992752075</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="K130" s="0" t="s">
         <v>42</v>
@@ -19838,16 +20072,16 @@
         <v>43</v>
       </c>
       <c r="N130" s="0" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="O130" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P130" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="R130" s="0" t="s">
         <v>48</v>
@@ -19856,16 +20090,16 @@
         <v>0</v>
       </c>
       <c r="T130" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="U130" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="V130" s="3" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="W130" s="3" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="AA130" s="0" t="s">
         <v>51</v>
@@ -19876,31 +20110,31 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>0.377470970153809</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="K131" s="0" t="s">
         <v>42</v>
@@ -19909,16 +20143,16 @@
         <v>60</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P131" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q131" s="0" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="R131" s="0" t="s">
         <v>48</v>
@@ -19927,10 +20161,10 @@
         <v>0</v>
       </c>
       <c r="T131" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U131" s="3" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="AA131" s="0" t="s">
         <v>51</v>
@@ -19941,31 +20175,31 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>0.370555877685547</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="K132" s="0" t="s">
         <v>42</v>
@@ -19974,16 +20208,16 @@
         <v>60</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="O132" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P132" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="R132" s="0" t="s">
         <v>48</v>
@@ -19992,10 +20226,10 @@
         <v>0</v>
       </c>
       <c r="T132" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U132" s="3" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="AA132" s="0" t="s">
         <v>51</v>
@@ -20006,31 +20240,31 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>0.433252573013306</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="K133" s="0" t="s">
         <v>42</v>
@@ -20039,16 +20273,16 @@
         <v>60</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="O133" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q133" s="0" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="R133" s="0" t="s">
         <v>48</v>
@@ -20057,10 +20291,10 @@
         <v>0</v>
       </c>
       <c r="T133" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U133" s="3" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="AA133" s="0" t="s">
         <v>51</v>
@@ -20071,31 +20305,31 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>0.404106140136719</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="K134" s="0" t="s">
         <v>42</v>
@@ -20104,16 +20338,16 @@
         <v>60</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O134" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P134" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q134" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R134" s="0" t="s">
         <v>48</v>
@@ -20122,10 +20356,10 @@
         <v>0</v>
       </c>
       <c r="T134" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA134" s="0" t="s">
         <v>51</v>
@@ -20136,31 +20370,31 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I135" s="0" t="n">
         <v>0.408141374588013</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>42</v>
@@ -20169,16 +20403,16 @@
         <v>60</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O135" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R135" s="0" t="s">
         <v>48</v>
@@ -20187,10 +20421,10 @@
         <v>0</v>
       </c>
       <c r="T135" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA135" s="0" t="s">
         <v>51</v>
@@ -20201,31 +20435,31 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>286</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>0.412233352661133</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="K136" s="0" t="s">
         <v>42</v>
@@ -20234,16 +20468,16 @@
         <v>60</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O136" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P136" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R136" s="0" t="s">
         <v>48</v>
@@ -20252,10 +20486,10 @@
         <v>0</v>
       </c>
       <c r="T136" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA136" s="0" t="s">
         <v>51</v>
@@ -20266,31 +20500,31 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>0.525198936462402</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>42</v>
@@ -20299,16 +20533,16 @@
         <v>60</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O137" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P137" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q137" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R137" s="0" t="s">
         <v>48</v>
@@ -20317,10 +20551,10 @@
         <v>181</v>
       </c>
       <c r="T137" s="3" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="U137" s="3" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="V137" s="3" t="s">
         <v>184</v>
@@ -20346,31 +20580,31 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>0.420845985412598</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="K138" s="0" t="s">
         <v>42</v>
@@ -20379,16 +20613,16 @@
         <v>60</v>
       </c>
       <c r="N138" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O138" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P138" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R138" s="0" t="s">
         <v>48</v>
@@ -20397,10 +20631,10 @@
         <v>0</v>
       </c>
       <c r="T138" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U138" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA138" s="0" t="s">
         <v>51</v>
@@ -20411,31 +20645,31 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>0.394573450088501</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>42</v>
@@ -20444,16 +20678,16 @@
         <v>60</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P139" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R139" s="0" t="s">
         <v>48</v>
@@ -20462,10 +20696,10 @@
         <v>0</v>
       </c>
       <c r="T139" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA139" s="0" t="s">
         <v>51</v>
@@ -20476,31 +20710,31 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>0.376626014709473</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="K140" s="0" t="s">
         <v>42</v>
@@ -20509,16 +20743,16 @@
         <v>60</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O140" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P140" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R140" s="0" t="s">
         <v>48</v>
@@ -20527,10 +20761,10 @@
         <v>0</v>
       </c>
       <c r="T140" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U140" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA140" s="0" t="s">
         <v>51</v>
@@ -20541,31 +20775,31 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>0.378581285476685</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="K141" s="0" t="s">
         <v>42</v>
@@ -20574,16 +20808,16 @@
         <v>60</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P141" s="0" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="R141" s="0" t="s">
         <v>48</v>
@@ -20592,10 +20826,10 @@
         <v>0</v>
       </c>
       <c r="T141" s="0" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="U141" s="3" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="AA141" s="0" t="s">
         <v>51</v>
@@ -20606,46 +20840,46 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>1.64794993400574</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="K142" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="O142" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P142" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q142" s="0" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="R142" s="0" t="s">
         <v>48</v>
@@ -20654,22 +20888,22 @@
         <v>0</v>
       </c>
       <c r="T142" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="U142" s="3" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="V142" s="3" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="W142" s="3" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="X142" s="3" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="Y142" s="3" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="AA142" s="0" t="s">
         <v>366</v>
@@ -20680,46 +20914,46 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>1.56366944313049</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="K143" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="O143" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P143" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q143" s="0" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="R143" s="0" t="s">
         <v>48</v>
@@ -20728,22 +20962,22 @@
         <v>0</v>
       </c>
       <c r="T143" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="V143" s="3" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="W143" s="3" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="Y143" s="3" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="AA143" s="0" t="s">
         <v>366</v>
@@ -20754,46 +20988,46 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>1.62310242652893</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="K144" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="O144" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P144" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="R144" s="0" t="s">
         <v>48</v>
@@ -20802,22 +21036,22 @@
         <v>0</v>
       </c>
       <c r="T144" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="V144" s="3" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="W144" s="3" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="X144" s="3" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="Y144" s="3" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="AA144" s="0" t="s">
         <v>366</v>
@@ -20828,46 +21062,46 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>1.54534554481506</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="K145" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P145" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q145" s="0" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="R145" s="0" t="s">
         <v>48</v>
@@ -20876,22 +21110,22 @@
         <v>0</v>
       </c>
       <c r="T145" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="U145" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="V145" s="3" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="W145" s="3" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="X145" s="3" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="Y145" s="3" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="AA145" s="0" t="s">
         <v>366</v>
@@ -20902,46 +21136,46 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>1.51037931442261</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="K146" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="O146" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P146" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q146" s="0" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="R146" s="0" t="s">
         <v>48</v>
@@ -20950,22 +21184,22 @@
         <v>0</v>
       </c>
       <c r="T146" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="V146" s="3" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="X146" s="3" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="Y146" s="3" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="AA146" s="0" t="s">
         <v>366</v>
@@ -20976,46 +21210,46 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>3.13941621780395</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="K147" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P147" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q147" s="0" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="R147" s="0" t="s">
         <v>48</v>
@@ -21024,22 +21258,22 @@
         <v>181</v>
       </c>
       <c r="T147" s="3" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="U147" s="3" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="V147" s="3" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="W147" s="3" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="X147" s="3" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="Y147" s="3" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="Z147" s="3" t="s">
         <v>184</v>
@@ -21053,46 +21287,46 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="I148" s="0" t="n">
         <v>1.62310242652893</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="K148" s="0" t="s">
         <v>357</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="O148" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P148" s="0" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q148" s="0" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="R148" s="0" t="s">
         <v>48</v>
@@ -21101,22 +21335,22 @@
         <v>0</v>
       </c>
       <c r="T148" s="0" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="U148" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="V148" s="3" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="W148" s="3" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="X148" s="3" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="Y148" s="3" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="AA148" s="0" t="s">
         <v>366</v>
@@ -21333,13 +21567,13 @@
         <v>359</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>46</v>
@@ -21348,13 +21582,13 @@
         <v>359</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>46</v>
@@ -21363,13 +21597,13 @@
         <v>359</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>46</v>
@@ -21378,13 +21612,13 @@
         <v>359</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>46</v>
@@ -21393,13 +21627,13 @@
         <v>359</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>46</v>
@@ -21408,13 +21642,13 @@
         <v>359</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>46</v>
@@ -21423,13 +21657,13 @@
         <v>359</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>46</v>
@@ -21438,13 +21672,13 @@
         <v>359</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>46</v>
@@ -21453,13 +21687,13 @@
         <v>359</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>46</v>
@@ -21468,13 +21702,13 @@
         <v>359</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>46</v>
@@ -21483,13 +21717,13 @@
         <v>359</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>46</v>
@@ -21498,13 +21732,13 @@
         <v>359</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>46</v>
@@ -21513,13 +21747,13 @@
         <v>359</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>46</v>
@@ -21528,13 +21762,13 @@
         <v>359</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>46</v>
@@ -21543,13 +21777,13 @@
         <v>359</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>46</v>
@@ -21558,13 +21792,13 @@
         <v>359</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="CD2" s="1" t="s">
         <v>46</v>
@@ -21573,13 +21807,13 @@
         <v>359</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="CI2" s="1" t="s">
         <v>46</v>
@@ -21588,13 +21822,13 @@
         <v>359</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>46</v>
@@ -21603,13 +21837,13 @@
         <v>359</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="CS2" s="1" t="s">
         <v>46</v>
@@ -21618,13 +21852,13 @@
         <v>359</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>46</v>
@@ -21633,13 +21867,13 @@
         <v>359</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>46</v>
@@ -21648,13 +21882,13 @@
         <v>359</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="DH2" s="1" t="s">
         <v>46</v>
@@ -21663,13 +21897,13 @@
         <v>359</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="DK2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="DM2" s="1" t="s">
         <v>46</v>
@@ -21678,13 +21912,13 @@
         <v>359</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21694,7 +21928,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
